--- a/data/pca/factorExposure/factorExposure_2017-08-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0238266062659603</v>
+        <v>0.00768135081007031</v>
       </c>
       <c r="C2">
-        <v>9.964630541155221e-05</v>
+        <v>0.04397693154141896</v>
       </c>
       <c r="D2">
-        <v>0.02028735398414082</v>
+        <v>0.03008116366741033</v>
       </c>
       <c r="E2">
-        <v>-0.009140506046333503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03380702075055619</v>
+      </c>
+      <c r="F2">
+        <v>0.01477585096260169</v>
+      </c>
+      <c r="G2">
+        <v>-0.05108599352267684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01565991599358432</v>
+        <v>0.05391631533117162</v>
       </c>
       <c r="C3">
-        <v>-0.0506215190824565</v>
+        <v>0.06901130739202781</v>
       </c>
       <c r="D3">
-        <v>0.008849103200977411</v>
+        <v>0.01521745723185002</v>
       </c>
       <c r="E3">
-        <v>-0.001706404071271574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09993690616318676</v>
+      </c>
+      <c r="F3">
+        <v>0.03887457033478074</v>
+      </c>
+      <c r="G3">
+        <v>-0.1152020609536629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02354251557633009</v>
+        <v>0.0592173002220109</v>
       </c>
       <c r="C4">
-        <v>-0.01938760711383781</v>
+        <v>0.06248603344458147</v>
       </c>
       <c r="D4">
-        <v>0.06225090015608739</v>
+        <v>0.02348596525025957</v>
       </c>
       <c r="E4">
-        <v>0.0151940288345752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0187679833933641</v>
+      </c>
+      <c r="F4">
+        <v>0.007835447795201149</v>
+      </c>
+      <c r="G4">
+        <v>-0.06050853776088081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01503659633539071</v>
+        <v>0.03999803882454493</v>
       </c>
       <c r="C6">
-        <v>-0.00922600146270566</v>
+        <v>0.05125028848359719</v>
       </c>
       <c r="D6">
-        <v>0.0880629767636221</v>
+        <v>0.01576655285041537</v>
       </c>
       <c r="E6">
-        <v>0.01007932282068518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01804519035181736</v>
+      </c>
+      <c r="F6">
+        <v>0.01244806521600381</v>
+      </c>
+      <c r="G6">
+        <v>-0.03851756362535062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01078271569578718</v>
+        <v>0.01752808438173309</v>
       </c>
       <c r="C7">
-        <v>-0.005638546726916459</v>
+        <v>0.03790990063298291</v>
       </c>
       <c r="D7">
-        <v>0.02907343068355621</v>
+        <v>0.01345828996492744</v>
       </c>
       <c r="E7">
-        <v>0.07647967317388449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.007524502372746765</v>
+      </c>
+      <c r="F7">
+        <v>0.001654175593949449</v>
+      </c>
+      <c r="G7">
+        <v>-0.1059081171679601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>5.300468880651109e-05</v>
+        <v>0.0007145353005409189</v>
       </c>
       <c r="C8">
-        <v>-0.0007377589280451785</v>
+        <v>0.02090004696668629</v>
       </c>
       <c r="D8">
-        <v>0.004529937718089845</v>
+        <v>0.003911718433774941</v>
       </c>
       <c r="E8">
-        <v>0.00650891126842492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02329414645009192</v>
+      </c>
+      <c r="F8">
+        <v>0.01923245899446036</v>
+      </c>
+      <c r="G8">
+        <v>-0.03257973030222912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01639640144737331</v>
+        <v>0.0346548995988423</v>
       </c>
       <c r="C9">
-        <v>-0.02060747405859413</v>
+        <v>0.04389499895728696</v>
       </c>
       <c r="D9">
-        <v>0.04803743127709663</v>
+        <v>0.01621763345497831</v>
       </c>
       <c r="E9">
-        <v>0.006373568752482726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01356340592786469</v>
+      </c>
+      <c r="F9">
+        <v>0.01476954306851521</v>
+      </c>
+      <c r="G9">
+        <v>-0.05883442081548035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02030619724818649</v>
+        <v>0.08891338451375125</v>
       </c>
       <c r="C10">
-        <v>-0.1650243094564</v>
+        <v>-0.1871645859867477</v>
       </c>
       <c r="D10">
-        <v>-0.1152206014847919</v>
+        <v>-0.01694741234959747</v>
       </c>
       <c r="E10">
-        <v>0.009654982925606919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01124429862098938</v>
+      </c>
+      <c r="F10">
+        <v>-0.0155598685207592</v>
+      </c>
+      <c r="G10">
+        <v>-0.04906773794418441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0007199046476049404</v>
+        <v>0.03424341169916059</v>
       </c>
       <c r="C11">
-        <v>-0.006823745559329261</v>
+        <v>0.05272243377204464</v>
       </c>
       <c r="D11">
-        <v>0.04240783362911493</v>
+        <v>0.002438189797290535</v>
       </c>
       <c r="E11">
-        <v>-0.005185746635920193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007728607207214339</v>
+      </c>
+      <c r="F11">
+        <v>0.02439185432209583</v>
+      </c>
+      <c r="G11">
+        <v>-0.04098912576576514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00630015323896057</v>
+        <v>0.03623427695242549</v>
       </c>
       <c r="C12">
-        <v>-0.01280726248549942</v>
+        <v>0.04743710816037462</v>
       </c>
       <c r="D12">
-        <v>0.04537479976260067</v>
+        <v>0.006268342883127012</v>
       </c>
       <c r="E12">
-        <v>0.003631563315818669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.001129698905198108</v>
+      </c>
+      <c r="F12">
+        <v>0.004989196566207663</v>
+      </c>
+      <c r="G12">
+        <v>-0.04133359202702706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02253788962931931</v>
+        <v>0.01640726297645948</v>
       </c>
       <c r="C13">
-        <v>-0.01520159704239566</v>
+        <v>0.03432715704414363</v>
       </c>
       <c r="D13">
-        <v>0.01133276914757946</v>
+        <v>0.02550420135245715</v>
       </c>
       <c r="E13">
-        <v>-0.009258903752253302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02529169550343405</v>
+      </c>
+      <c r="F13">
+        <v>0.009464331242342127</v>
+      </c>
+      <c r="G13">
+        <v>-0.06196200521197059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007944028866530121</v>
+        <v>0.00870576141450841</v>
       </c>
       <c r="C14">
-        <v>-0.01469778691221205</v>
+        <v>0.02523194773575933</v>
       </c>
       <c r="D14">
-        <v>0.01235648844172004</v>
+        <v>0.008742404626986975</v>
       </c>
       <c r="E14">
-        <v>0.01284774359071149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00397752807873826</v>
+      </c>
+      <c r="F14">
+        <v>-0.003937180143364138</v>
+      </c>
+      <c r="G14">
+        <v>-0.06027088143326871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001543202551006961</v>
+        <v>0.03225844767831443</v>
       </c>
       <c r="C16">
-        <v>-0.01269077059250616</v>
+        <v>0.04655070824041502</v>
       </c>
       <c r="D16">
-        <v>0.04812503968176055</v>
+        <v>0.002081195736421064</v>
       </c>
       <c r="E16">
-        <v>0.003732891974280283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.007065461777748054</v>
+      </c>
+      <c r="F16">
+        <v>0.007172886508920255</v>
+      </c>
+      <c r="G16">
+        <v>-0.0453649630022585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01422829457163447</v>
+        <v>0.02417650233557888</v>
       </c>
       <c r="C19">
-        <v>-0.0238999070103047</v>
+        <v>0.04976951725628209</v>
       </c>
       <c r="D19">
-        <v>0.02001348097361447</v>
+        <v>0.01700479153493956</v>
       </c>
       <c r="E19">
-        <v>0.007276088225141085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05614379639127153</v>
+      </c>
+      <c r="F19">
+        <v>0.02070426719422332</v>
+      </c>
+      <c r="G19">
+        <v>-0.07367038563194188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01110766459584707</v>
+        <v>0.01391088268340128</v>
       </c>
       <c r="C20">
-        <v>-0.009076907821883558</v>
+        <v>0.03449900893068895</v>
       </c>
       <c r="D20">
-        <v>0.009187340161146728</v>
+        <v>0.01354120672252779</v>
       </c>
       <c r="E20">
-        <v>-0.0009891736260186836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02549451642887657</v>
+      </c>
+      <c r="F20">
+        <v>-0.002656311219136715</v>
+      </c>
+      <c r="G20">
+        <v>-0.05861155249785256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01513553008567447</v>
+        <v>0.01361901650957324</v>
       </c>
       <c r="C21">
-        <v>-0.02394194446538528</v>
+        <v>0.03628683131887987</v>
       </c>
       <c r="D21">
-        <v>0.02252865365062841</v>
+        <v>0.01738347881013147</v>
       </c>
       <c r="E21">
-        <v>0.01940072236347381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03456511545998403</v>
+      </c>
+      <c r="F21">
+        <v>0.00255041169488929</v>
+      </c>
+      <c r="G21">
+        <v>-0.08487370429989838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004550896995159923</v>
+        <v>0.02695303528856039</v>
       </c>
       <c r="C24">
-        <v>-0.001402089842223523</v>
+        <v>0.04933066420232647</v>
       </c>
       <c r="D24">
-        <v>0.04336209242359033</v>
+        <v>0.007467044689605397</v>
       </c>
       <c r="E24">
-        <v>0.001428008990982739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004268304861205298</v>
+      </c>
+      <c r="F24">
+        <v>0.01923780416326365</v>
+      </c>
+      <c r="G24">
+        <v>-0.04658372461110454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01210631602071879</v>
+        <v>0.04191736572587762</v>
       </c>
       <c r="C25">
-        <v>-0.01754713153160444</v>
+        <v>0.05606300753663179</v>
       </c>
       <c r="D25">
-        <v>0.04597198414351624</v>
+        <v>0.01142716469485193</v>
       </c>
       <c r="E25">
-        <v>0.0002750971116033414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.003810400257644504</v>
+      </c>
+      <c r="F25">
+        <v>0.01267322377119621</v>
+      </c>
+      <c r="G25">
+        <v>-0.05135825233561341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02315447461551979</v>
+        <v>0.01435889675070748</v>
       </c>
       <c r="C26">
-        <v>-0.01084291319282592</v>
+        <v>0.009289148298774898</v>
       </c>
       <c r="D26">
-        <v>-0.006568946297915815</v>
+        <v>0.02347956797786023</v>
       </c>
       <c r="E26">
-        <v>0.009111254338457508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.003522060693437066</v>
+      </c>
+      <c r="F26">
+        <v>-0.003908587106411988</v>
+      </c>
+      <c r="G26">
+        <v>-0.04648147470363571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04263814465611375</v>
+        <v>0.1135949488524394</v>
       </c>
       <c r="C28">
-        <v>-0.2366485956211302</v>
+        <v>-0.2351855507529916</v>
       </c>
       <c r="D28">
-        <v>-0.1633083689331055</v>
+        <v>-0.008057147985338471</v>
       </c>
       <c r="E28">
-        <v>0.01938917454082213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0002731685798231308</v>
+      </c>
+      <c r="F28">
+        <v>-0.0175684731895077</v>
+      </c>
+      <c r="G28">
+        <v>-0.06574854285721245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00834294860336797</v>
+        <v>0.01116667702635587</v>
       </c>
       <c r="C29">
-        <v>-0.01859058712532623</v>
+        <v>0.01973823384098326</v>
       </c>
       <c r="D29">
-        <v>0.01138724936076621</v>
+        <v>0.007557558683479075</v>
       </c>
       <c r="E29">
-        <v>0.008725983184634403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.006589170760608583</v>
+      </c>
+      <c r="F29">
+        <v>-0.01355767336223233</v>
+      </c>
+      <c r="G29">
+        <v>-0.05082481635382984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02360031469457771</v>
+        <v>0.04660995542537164</v>
       </c>
       <c r="C30">
-        <v>-0.004742995492418352</v>
+        <v>0.06290872776510352</v>
       </c>
       <c r="D30">
-        <v>0.06329554917228963</v>
+        <v>0.02803802865073843</v>
       </c>
       <c r="E30">
-        <v>-0.05301585919430533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04539702528525582</v>
+      </c>
+      <c r="F30">
+        <v>0.0527095983592636</v>
+      </c>
+      <c r="G30">
+        <v>-0.03756139428282371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009664113524666557</v>
+        <v>0.05335165257703971</v>
       </c>
       <c r="C31">
-        <v>-0.04214817861431566</v>
+        <v>0.03258189959698821</v>
       </c>
       <c r="D31">
-        <v>0.04245125029091005</v>
+        <v>0.003187654155634809</v>
       </c>
       <c r="E31">
-        <v>0.01140277536609404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.00751973487952707</v>
+      </c>
+      <c r="F31">
+        <v>-0.03549129364236801</v>
+      </c>
+      <c r="G31">
+        <v>-0.04995382909197502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006092787648189765</v>
+        <v>-0.005224514275460765</v>
       </c>
       <c r="C32">
-        <v>-0.01896036422901641</v>
+        <v>0.02739969069905152</v>
       </c>
       <c r="D32">
-        <v>-0.000855736975137591</v>
+        <v>-0.00374360903372279</v>
       </c>
       <c r="E32">
-        <v>0.03485818109903429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01627511754237509</v>
+      </c>
+      <c r="F32">
+        <v>0.0462684333757147</v>
+      </c>
+      <c r="G32">
+        <v>-0.06955875210336875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0139733710301543</v>
+        <v>0.02721184621599607</v>
       </c>
       <c r="C33">
-        <v>-0.02650971794322289</v>
+        <v>0.0474394167285723</v>
       </c>
       <c r="D33">
-        <v>0.02257935653905736</v>
+        <v>0.01512989993575271</v>
       </c>
       <c r="E33">
-        <v>-0.02325089208329009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02925655895180631</v>
+      </c>
+      <c r="F33">
+        <v>0.02184639890947046</v>
+      </c>
+      <c r="G33">
+        <v>-0.06841925373006252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004003285197037884</v>
+        <v>0.03977034121449404</v>
       </c>
       <c r="C34">
-        <v>-0.01860539105786464</v>
+        <v>0.0598934096747625</v>
       </c>
       <c r="D34">
-        <v>0.04904741583205333</v>
+        <v>-0.00419867438755193</v>
       </c>
       <c r="E34">
-        <v>0.008872498719521277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.002177665199970454</v>
+      </c>
+      <c r="F34">
+        <v>0.02422449338636777</v>
+      </c>
+      <c r="G34">
+        <v>-0.05447602772070791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01329966172513926</v>
+        <v>0.01431505280917578</v>
       </c>
       <c r="C36">
-        <v>-0.02232084928460857</v>
+        <v>0.009613391976513131</v>
       </c>
       <c r="D36">
-        <v>0.004173645275074953</v>
+        <v>0.01171020705883912</v>
       </c>
       <c r="E36">
-        <v>0.003057200539208879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001409060792924394</v>
+      </c>
+      <c r="F36">
+        <v>-0.004864379805270359</v>
+      </c>
+      <c r="G36">
+        <v>-0.04165299695190414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003202988264477233</v>
+        <v>0.03212753274846725</v>
       </c>
       <c r="C38">
-        <v>-0.03669501542513098</v>
+        <v>0.02825127612513553</v>
       </c>
       <c r="D38">
-        <v>0.03386059596770357</v>
+        <v>-0.007413814009690556</v>
       </c>
       <c r="E38">
-        <v>0.003016427605211245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00437883030679111</v>
+      </c>
+      <c r="F38">
+        <v>-0.01074951889114703</v>
+      </c>
+      <c r="G38">
+        <v>-0.04958210372456031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005147152603401216</v>
+        <v>0.03313304663509042</v>
       </c>
       <c r="C39">
-        <v>0.01760464632114311</v>
+        <v>0.08185543515232419</v>
       </c>
       <c r="D39">
-        <v>0.09102601606461501</v>
+        <v>0.01245144288134886</v>
       </c>
       <c r="E39">
-        <v>-0.005403726764323541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02292165759802068</v>
+      </c>
+      <c r="F39">
+        <v>0.03154836253586932</v>
+      </c>
+      <c r="G39">
+        <v>-0.04688314826236377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01270226000054284</v>
+        <v>0.01884145343689978</v>
       </c>
       <c r="C40">
-        <v>-0.02330923039783616</v>
+        <v>0.03224426037828318</v>
       </c>
       <c r="D40">
-        <v>0.03115987598292792</v>
+        <v>0.01361300618832584</v>
       </c>
       <c r="E40">
-        <v>-0.001221024850967889</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02049277892220936</v>
+      </c>
+      <c r="F40">
+        <v>0.01290441127626916</v>
+      </c>
+      <c r="G40">
+        <v>-0.04705181261470705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006322462967796721</v>
+        <v>0.01480299883456468</v>
       </c>
       <c r="C41">
-        <v>-0.02229894367105615</v>
+        <v>0.002856493770474399</v>
       </c>
       <c r="D41">
-        <v>-0.008850960490175466</v>
+        <v>0.00386757395611057</v>
       </c>
       <c r="E41">
-        <v>0.002209324202714939</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001957892610748071</v>
+      </c>
+      <c r="F41">
+        <v>-0.009225483301012432</v>
+      </c>
+      <c r="G41">
+        <v>-0.02905458409853727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09327316399045575</v>
+        <v>0.01333917399899921</v>
       </c>
       <c r="C42">
-        <v>0.003329201401175981</v>
+        <v>0.03857000142858524</v>
       </c>
       <c r="D42">
-        <v>0.2632341885909362</v>
+        <v>0.09419604243979907</v>
       </c>
       <c r="E42">
-        <v>-0.2970909108420094</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03348280431902696</v>
+      </c>
+      <c r="F42">
+        <v>-0.03949445157994886</v>
+      </c>
+      <c r="G42">
+        <v>0.1683558634237819</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007814749807340607</v>
+        <v>0.03027095127292014</v>
       </c>
       <c r="C43">
-        <v>-0.02637092367732811</v>
+        <v>0.01333564682338459</v>
       </c>
       <c r="D43">
-        <v>-0.01353621545487923</v>
+        <v>0.005271626202784378</v>
       </c>
       <c r="E43">
-        <v>-0.004267197224044123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01042904426121162</v>
+      </c>
+      <c r="F43">
+        <v>-0.0003371701108293485</v>
+      </c>
+      <c r="G43">
+        <v>-0.04447284303480193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003454619055746151</v>
+        <v>0.01707799261744321</v>
       </c>
       <c r="C44">
-        <v>-0.006780343326565529</v>
+        <v>0.04916090055900626</v>
       </c>
       <c r="D44">
-        <v>0.0270629576555118</v>
+        <v>0.006186952053172812</v>
       </c>
       <c r="E44">
-        <v>0.002392556139463537</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01687290145446513</v>
+      </c>
+      <c r="F44">
+        <v>-0.0005611153101672696</v>
+      </c>
+      <c r="G44">
+        <v>-0.06289904627637212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0112871125799893</v>
+        <v>0.007035568236170337</v>
       </c>
       <c r="C46">
-        <v>-0.01659929429699936</v>
+        <v>0.0160005791034296</v>
       </c>
       <c r="D46">
-        <v>0.01182754337337288</v>
+        <v>0.0114856671351811</v>
       </c>
       <c r="E46">
-        <v>0.002900754579823157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.00552511792699957</v>
+      </c>
+      <c r="F46">
+        <v>-0.01638456210272152</v>
+      </c>
+      <c r="G46">
+        <v>-0.04761549189242806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004096951814662757</v>
+        <v>0.07853773283327557</v>
       </c>
       <c r="C47">
-        <v>-0.05426041287632126</v>
+        <v>0.06394920036234816</v>
       </c>
       <c r="D47">
-        <v>0.05901579189682576</v>
+        <v>-0.005285708604358551</v>
       </c>
       <c r="E47">
-        <v>0.002477975548647319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01124278737268401</v>
+      </c>
+      <c r="F47">
+        <v>-0.05439199477737194</v>
+      </c>
+      <c r="G47">
+        <v>-0.0466096137180665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004191198589624747</v>
+        <v>0.02095644891195183</v>
       </c>
       <c r="C48">
-        <v>-0.02757424709429192</v>
+        <v>0.01097947821933921</v>
       </c>
       <c r="D48">
-        <v>0.01124978139385467</v>
+        <v>0.0009907669225977199</v>
       </c>
       <c r="E48">
-        <v>0.003542204902075619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.00343939951089569</v>
+      </c>
+      <c r="F48">
+        <v>-0.01801200691004308</v>
+      </c>
+      <c r="G48">
+        <v>-0.04843841324277628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006049728091013755</v>
+        <v>0.07980850235515478</v>
       </c>
       <c r="C50">
-        <v>-0.05377492016927581</v>
+        <v>0.06404843118798455</v>
       </c>
       <c r="D50">
-        <v>0.06221576123154288</v>
+        <v>-0.003527156925606656</v>
       </c>
       <c r="E50">
-        <v>0.03272205167111798</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01502216695013155</v>
+      </c>
+      <c r="F50">
+        <v>-0.05624685326638906</v>
+      </c>
+      <c r="G50">
+        <v>-0.0721693025496626</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007427347798447625</v>
+        <v>0.01304283164572638</v>
       </c>
       <c r="C51">
-        <v>-0.01682699803175717</v>
+        <v>0.03032595948470691</v>
       </c>
       <c r="D51">
-        <v>-0.001128035342993202</v>
+        <v>0.009698534126746068</v>
       </c>
       <c r="E51">
-        <v>0.005165714631326739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0131974080800078</v>
+      </c>
+      <c r="F51">
+        <v>0.02927395253278162</v>
+      </c>
+      <c r="G51">
+        <v>-0.07006652970165421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007336823329774944</v>
+        <v>0.08600545955900021</v>
       </c>
       <c r="C53">
-        <v>-0.06574894959593292</v>
+        <v>0.0768804646820074</v>
       </c>
       <c r="D53">
-        <v>0.1182072692422645</v>
+        <v>-0.004792298949048524</v>
       </c>
       <c r="E53">
-        <v>0.009230656850776977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03435828387597491</v>
+      </c>
+      <c r="F53">
+        <v>-0.05845376578669743</v>
+      </c>
+      <c r="G53">
+        <v>-0.04335117963027454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001319528927445397</v>
+        <v>0.03184028533421995</v>
       </c>
       <c r="C54">
-        <v>-0.03580132754069253</v>
+        <v>0.01361372464024009</v>
       </c>
       <c r="D54">
-        <v>-0.00709166511363229</v>
+        <v>-0.002501881479896511</v>
       </c>
       <c r="E54">
-        <v>0.01076166927770005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003423533008779424</v>
+      </c>
+      <c r="F54">
+        <v>-0.005832075691409849</v>
+      </c>
+      <c r="G54">
+        <v>-0.05435447057332729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003730575977129806</v>
+        <v>0.07506269041262405</v>
       </c>
       <c r="C55">
-        <v>-0.04635858281357546</v>
+        <v>0.06739702481036164</v>
       </c>
       <c r="D55">
-        <v>0.1037591610284718</v>
+        <v>-0.005598435865111483</v>
       </c>
       <c r="E55">
-        <v>-0.001949922503439776</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02769418313273609</v>
+      </c>
+      <c r="F55">
+        <v>-0.05991682866107725</v>
+      </c>
+      <c r="G55">
+        <v>-0.02565360680187039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006368787031863057</v>
+        <v>0.1460672684589175</v>
       </c>
       <c r="C56">
-        <v>-0.09244184242881559</v>
+        <v>0.1005212679259663</v>
       </c>
       <c r="D56">
-        <v>0.1514650106808115</v>
+        <v>-0.01321563289260749</v>
       </c>
       <c r="E56">
-        <v>0.0003339437249992644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03968124548082528</v>
+      </c>
+      <c r="F56">
+        <v>-0.07916471068129681</v>
+      </c>
+      <c r="G56">
+        <v>-0.0112452103465764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02427856674558179</v>
+        <v>0.008906698930907953</v>
       </c>
       <c r="C57">
-        <v>-0.0163565382344158</v>
+        <v>0.008819109192706225</v>
       </c>
       <c r="D57">
-        <v>0.04304717478451972</v>
+        <v>0.02363043577857527</v>
       </c>
       <c r="E57">
-        <v>-0.003124952832026108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.0276235206898775</v>
+      </c>
+      <c r="F57">
+        <v>0.01178336261475036</v>
+      </c>
+      <c r="G57">
+        <v>-0.02386797671636577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01499414386131411</v>
+        <v>0.08056069872675668</v>
       </c>
       <c r="C58">
-        <v>-0.09597389803818443</v>
+        <v>0.03262496002813263</v>
       </c>
       <c r="D58">
-        <v>0.09765295464778476</v>
+        <v>0.01895064212941874</v>
       </c>
       <c r="E58">
-        <v>-0.2146644378976799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9392521557022965</v>
+      </c>
+      <c r="F58">
+        <v>-0.2412948617060489</v>
+      </c>
+      <c r="G58">
+        <v>0.03523844749143398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03964480259772135</v>
+        <v>0.1527950794949915</v>
       </c>
       <c r="C59">
-        <v>-0.2527348606462372</v>
+        <v>-0.2141874736292229</v>
       </c>
       <c r="D59">
-        <v>-0.1642050931761508</v>
+        <v>-0.01446308693917361</v>
       </c>
       <c r="E59">
-        <v>-0.0006382151480018121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.007786901891501133</v>
+      </c>
+      <c r="F59">
+        <v>0.00714980556624163</v>
+      </c>
+      <c r="G59">
+        <v>-0.02630778512345229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04101747329443299</v>
+        <v>0.2931551874944824</v>
       </c>
       <c r="C60">
-        <v>-0.1624571970942622</v>
+        <v>0.09550232676443493</v>
       </c>
       <c r="D60">
-        <v>0.08170604571933576</v>
+        <v>0.01250565769030446</v>
       </c>
       <c r="E60">
-        <v>-0.02767571163799626</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.001865764392175029</v>
+      </c>
+      <c r="F60">
+        <v>0.3414350291636449</v>
+      </c>
+      <c r="G60">
+        <v>0.1101061347033178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003506861335018338</v>
+        <v>0.03609265054484861</v>
       </c>
       <c r="C61">
-        <v>-0.007548741165336016</v>
+        <v>0.06533817828897083</v>
       </c>
       <c r="D61">
-        <v>0.06482369702144911</v>
+        <v>0.005744911277755407</v>
       </c>
       <c r="E61">
-        <v>-0.0003074358483837466</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01202926185257474</v>
+      </c>
+      <c r="F61">
+        <v>0.02056762479202798</v>
+      </c>
+      <c r="G61">
+        <v>-0.04400310976258251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007807696200457096</v>
+        <v>0.01432195348770566</v>
       </c>
       <c r="C63">
-        <v>-0.009130748659760674</v>
+        <v>0.02864776153843288</v>
       </c>
       <c r="D63">
-        <v>0.008859309330132891</v>
+        <v>0.008019718761478814</v>
       </c>
       <c r="E63">
-        <v>0.008367294329538474</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.003618223394466556</v>
+      </c>
+      <c r="F63">
+        <v>-0.01646157910226459</v>
+      </c>
+      <c r="G63">
+        <v>-0.05321859452757912</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00868025789509135</v>
+        <v>0.05117624121581904</v>
       </c>
       <c r="C64">
-        <v>-0.03107901249097418</v>
+        <v>0.04391689553151089</v>
       </c>
       <c r="D64">
-        <v>0.06524166442094052</v>
+        <v>0.005740120330211737</v>
       </c>
       <c r="E64">
-        <v>-0.01226379986514834</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.005051894494869944</v>
+      </c>
+      <c r="F64">
+        <v>0.002622538758699112</v>
+      </c>
+      <c r="G64">
+        <v>-0.0384844961192529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01683362740660751</v>
+        <v>0.08311575580214089</v>
       </c>
       <c r="C65">
-        <v>-0.007683025622917878</v>
+        <v>0.05682194877800849</v>
       </c>
       <c r="D65">
-        <v>0.1039255907642213</v>
+        <v>0.01518256957917931</v>
       </c>
       <c r="E65">
-        <v>0.01159738159400653</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01899371969929209</v>
+      </c>
+      <c r="F65">
+        <v>0.02817370641848622</v>
+      </c>
+      <c r="G65">
+        <v>-0.01789597951524113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00481513445754848</v>
+        <v>0.05255056045768312</v>
       </c>
       <c r="C66">
-        <v>0.01226330271373639</v>
+        <v>0.1132611010497715</v>
       </c>
       <c r="D66">
-        <v>0.1192723151601237</v>
+        <v>0.01216800964977631</v>
       </c>
       <c r="E66">
-        <v>-0.0170506465410264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02781727215283317</v>
+      </c>
+      <c r="F66">
+        <v>0.03568413230305497</v>
+      </c>
+      <c r="G66">
+        <v>-0.04472904141534229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003236670041489558</v>
+        <v>0.05392627720056353</v>
       </c>
       <c r="C67">
-        <v>-0.05736145240714879</v>
+        <v>0.03176152257486953</v>
       </c>
       <c r="D67">
-        <v>0.03954464291146827</v>
+        <v>-0.005441397772686901</v>
       </c>
       <c r="E67">
-        <v>0.00319315492784231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.002034711282476053</v>
+      </c>
+      <c r="F67">
+        <v>-0.01251476981162676</v>
+      </c>
+      <c r="G67">
+        <v>-0.04730189838040198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05706261895998864</v>
+        <v>0.1362315383144804</v>
       </c>
       <c r="C68">
-        <v>-0.2307470049656977</v>
+        <v>-0.2757108455669597</v>
       </c>
       <c r="D68">
-        <v>-0.1572105802568441</v>
+        <v>0.003476150744964168</v>
       </c>
       <c r="E68">
-        <v>-0.009135260130675149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00708995229107595</v>
+      </c>
+      <c r="F68">
+        <v>-0.02897158119551789</v>
+      </c>
+      <c r="G68">
+        <v>-0.02246354340984634</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001137766820296944</v>
+        <v>0.08145457027338393</v>
       </c>
       <c r="C69">
-        <v>-0.04097042851966247</v>
+        <v>0.06607940415773379</v>
       </c>
       <c r="D69">
-        <v>0.06277746618254981</v>
+        <v>-0.009314021194249782</v>
       </c>
       <c r="E69">
-        <v>0.003757968437919074</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02901954733493366</v>
+      </c>
+      <c r="F69">
+        <v>-0.03713966971166826</v>
+      </c>
+      <c r="G69">
+        <v>-0.04906265107309915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04244300366745987</v>
+        <v>0.1279210304729647</v>
       </c>
       <c r="C71">
-        <v>-0.2046723630520895</v>
+        <v>-0.2371596867465359</v>
       </c>
       <c r="D71">
-        <v>-0.1421638652488992</v>
+        <v>-0.005287524670992571</v>
       </c>
       <c r="E71">
-        <v>0.004008187558729595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02521229813462684</v>
+      </c>
+      <c r="F71">
+        <v>-0.006426716713025513</v>
+      </c>
+      <c r="G71">
+        <v>-0.0398061086806101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0001138739081189512</v>
+        <v>0.086744286962289</v>
       </c>
       <c r="C72">
-        <v>-0.04784928867396446</v>
+        <v>0.07365805593668398</v>
       </c>
       <c r="D72">
-        <v>0.1362072955392236</v>
+        <v>-0.007660182553273341</v>
       </c>
       <c r="E72">
-        <v>-0.01363822451837075</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002648702303185344</v>
+      </c>
+      <c r="F72">
+        <v>0.04424905865439119</v>
+      </c>
+      <c r="G72">
+        <v>-0.02498064653148018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05404299256726635</v>
+        <v>0.3947920276019328</v>
       </c>
       <c r="C73">
-        <v>-0.18786602000644</v>
+        <v>0.1045944166986818</v>
       </c>
       <c r="D73">
-        <v>0.1799500625141773</v>
+        <v>0.02092998466491914</v>
       </c>
       <c r="E73">
-        <v>-0.07684834713123251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0671463530751816</v>
+      </c>
+      <c r="F73">
+        <v>0.5561440487191477</v>
+      </c>
+      <c r="G73">
+        <v>0.1787109337814695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003347896972042403</v>
+        <v>0.1148581009197393</v>
       </c>
       <c r="C74">
-        <v>-0.0807341112909586</v>
+        <v>0.1105615263372069</v>
       </c>
       <c r="D74">
-        <v>0.1603411463019746</v>
+        <v>-0.01024851039127055</v>
       </c>
       <c r="E74">
-        <v>-0.004319553599304777</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01736584477560266</v>
+      </c>
+      <c r="F74">
+        <v>-0.07402542980745155</v>
+      </c>
+      <c r="G74">
+        <v>-0.05186737000782186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01191594317877483</v>
+        <v>0.2513852584995496</v>
       </c>
       <c r="C75">
-        <v>-0.1880362247081395</v>
+        <v>0.1456127586027512</v>
       </c>
       <c r="D75">
-        <v>0.2853325755247864</v>
+        <v>-0.0303491469572896</v>
       </c>
       <c r="E75">
-        <v>-0.01550830334435166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05834036427345989</v>
+      </c>
+      <c r="F75">
+        <v>-0.1885233997496457</v>
+      </c>
+      <c r="G75">
+        <v>0.03556864202229391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0001729409051249656</v>
+        <v>0.1292293288963604</v>
       </c>
       <c r="C76">
-        <v>-0.1192494061488741</v>
+        <v>0.1119421096345703</v>
       </c>
       <c r="D76">
-        <v>0.2314257219835769</v>
+        <v>-0.02114821529155283</v>
       </c>
       <c r="E76">
-        <v>0.01431515735076093</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.04856523528657498</v>
+      </c>
+      <c r="F76">
+        <v>-0.1205399227093037</v>
+      </c>
+      <c r="G76">
+        <v>-0.02851766589536919</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01273959712213226</v>
+        <v>0.06818692516990202</v>
       </c>
       <c r="C77">
-        <v>-0.02058122366134584</v>
+        <v>0.05908412222681814</v>
       </c>
       <c r="D77">
-        <v>0.04955851194771545</v>
+        <v>0.01222719276600989</v>
       </c>
       <c r="E77">
-        <v>-0.008719489057672062</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04892202563203882</v>
+      </c>
+      <c r="F77">
+        <v>0.009745213246223695</v>
+      </c>
+      <c r="G77">
+        <v>-0.05324239902391179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004870405148132988</v>
+        <v>0.04432324266251354</v>
       </c>
       <c r="C78">
-        <v>-0.0160212553269349</v>
+        <v>0.05294324086475331</v>
       </c>
       <c r="D78">
-        <v>0.06510963438090227</v>
+        <v>0.005743326588143398</v>
       </c>
       <c r="E78">
-        <v>-0.001032574913803011</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02112715934776267</v>
+      </c>
+      <c r="F78">
+        <v>0.03564015890108304</v>
+      </c>
+      <c r="G78">
+        <v>-0.04977938695160295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01752925398455022</v>
+        <v>0.05354571568086968</v>
       </c>
       <c r="C80">
-        <v>-0.08753345232288327</v>
+        <v>0.05783284059421002</v>
       </c>
       <c r="D80">
-        <v>0.1533776655655102</v>
+        <v>0.01241020793274999</v>
       </c>
       <c r="E80">
-        <v>0.9072730370872856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02940564434377884</v>
+      </c>
+      <c r="F80">
+        <v>0.0375747418238453</v>
+      </c>
+      <c r="G80">
+        <v>-0.8216167853712876</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.007911238189774161</v>
+        <v>0.1449767782069921</v>
       </c>
       <c r="C81">
-        <v>-0.1138494859502141</v>
+        <v>0.08642603385744739</v>
       </c>
       <c r="D81">
-        <v>0.1719530767757935</v>
+        <v>-0.01589268238643383</v>
       </c>
       <c r="E81">
-        <v>0.003837481377387506</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03534917500184585</v>
+      </c>
+      <c r="F81">
+        <v>-0.1291558488196701</v>
+      </c>
+      <c r="G81">
+        <v>-0.02677698045233435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1189155523699986</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05595830823726954</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.006389485530195002</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08151525329415611</v>
+      </c>
+      <c r="F82">
+        <v>-0.01702213746840695</v>
+      </c>
+      <c r="G82">
+        <v>-0.02411954423380868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007341439197388075</v>
+        <v>0.0309957210830735</v>
       </c>
       <c r="C83">
-        <v>-0.0223121405250473</v>
+        <v>0.01889381247291338</v>
       </c>
       <c r="D83">
-        <v>0.02301400994308755</v>
+        <v>0.005681440605626246</v>
       </c>
       <c r="E83">
-        <v>-2.259166698799631e-05</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02766514949336263</v>
+      </c>
+      <c r="F83">
+        <v>0.03793214745601575</v>
+      </c>
+      <c r="G83">
+        <v>-0.03135345696873088</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01802244132833641</v>
+        <v>0.2222208497535516</v>
       </c>
       <c r="C85">
-        <v>-0.1462121442754359</v>
+        <v>0.1394526165391116</v>
       </c>
       <c r="D85">
-        <v>0.2629363556003248</v>
+        <v>-0.01829879914648257</v>
       </c>
       <c r="E85">
-        <v>-0.02214870477073551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09706838902667922</v>
+      </c>
+      <c r="F85">
+        <v>-0.1465312530052377</v>
+      </c>
+      <c r="G85">
+        <v>0.06871960926130677</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008304314628870652</v>
+        <v>0.01497196052224249</v>
       </c>
       <c r="C86">
-        <v>-0.02907829247158326</v>
+        <v>0.02192146046103397</v>
       </c>
       <c r="D86">
-        <v>0.009552613067391622</v>
+        <v>0.0113223947752817</v>
       </c>
       <c r="E86">
-        <v>-0.02871720827831281</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04035871247330541</v>
+      </c>
+      <c r="F86">
+        <v>0.04685203791523949</v>
+      </c>
+      <c r="G86">
+        <v>-0.09070737855283273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007952388847154254</v>
+        <v>0.02101933588501013</v>
       </c>
       <c r="C87">
-        <v>-0.01291844242565249</v>
+        <v>0.02573466506022842</v>
       </c>
       <c r="D87">
-        <v>0.04416258069171292</v>
+        <v>0.01130109236904301</v>
       </c>
       <c r="E87">
-        <v>-0.00446371988577206</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08376797721478224</v>
+      </c>
+      <c r="F87">
+        <v>0.02425891458860959</v>
+      </c>
+      <c r="G87">
+        <v>-0.06516696443210444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02813076038816721</v>
+        <v>0.09182821218535697</v>
       </c>
       <c r="C88">
-        <v>-0.03458778852328483</v>
+        <v>0.06284273826781141</v>
       </c>
       <c r="D88">
-        <v>0.03702274528871136</v>
+        <v>0.0229250914708331</v>
       </c>
       <c r="E88">
-        <v>-0.001171112001788709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01299403351753642</v>
+      </c>
+      <c r="F88">
+        <v>-0.01810843304247231</v>
+      </c>
+      <c r="G88">
+        <v>-0.04270711479129326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07908201830964823</v>
+        <v>0.213331080157801</v>
       </c>
       <c r="C89">
-        <v>-0.3667104942869869</v>
+        <v>-0.3750771363023268</v>
       </c>
       <c r="D89">
-        <v>-0.2379905336202051</v>
+        <v>-0.004324680003040006</v>
       </c>
       <c r="E89">
-        <v>-0.01049351894386785</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02089056063050571</v>
+      </c>
+      <c r="F89">
+        <v>-0.02261557713556714</v>
+      </c>
+      <c r="G89">
+        <v>-0.03670670174580531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06056204651260062</v>
+        <v>0.1899884622212848</v>
       </c>
       <c r="C90">
-        <v>-0.2836886579655208</v>
+        <v>-0.3337950038527204</v>
       </c>
       <c r="D90">
-        <v>-0.2146955926533001</v>
+        <v>-0.008343313156979826</v>
       </c>
       <c r="E90">
-        <v>-0.01758635948854941</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01937414190183793</v>
+      </c>
+      <c r="F90">
+        <v>-0.044798904753913</v>
+      </c>
+      <c r="G90">
+        <v>-0.008941915943665557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.00770378862346838</v>
+        <v>0.1972163211535741</v>
       </c>
       <c r="C91">
-        <v>-0.1620102679234444</v>
+        <v>0.1337750961798521</v>
       </c>
       <c r="D91">
-        <v>0.2426752803416578</v>
+        <v>-0.02407455437769143</v>
       </c>
       <c r="E91">
-        <v>-0.0002934012784324843</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07406251856217677</v>
+      </c>
+      <c r="F91">
+        <v>-0.1617691255229329</v>
+      </c>
+      <c r="G91">
+        <v>-0.01243942769157971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02762421876407799</v>
+        <v>0.1917323895858085</v>
       </c>
       <c r="C92">
-        <v>-0.3112787440714826</v>
+        <v>-0.2688237203405871</v>
       </c>
       <c r="D92">
-        <v>-0.09572561883202754</v>
+        <v>-0.04382865056296239</v>
       </c>
       <c r="E92">
-        <v>-0.001825191320562558</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.009874776420255712</v>
+      </c>
+      <c r="F92">
+        <v>-0.05989373330251005</v>
+      </c>
+      <c r="G92">
+        <v>-0.08944504844045056</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05896068006408763</v>
+        <v>0.2167002743410553</v>
       </c>
       <c r="C93">
-        <v>-0.3142574067503706</v>
+        <v>-0.3288767622987938</v>
       </c>
       <c r="D93">
-        <v>-0.2072787463494462</v>
+        <v>-0.01506838194986456</v>
       </c>
       <c r="E93">
-        <v>-0.03288948152897047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.006288467859405627</v>
+      </c>
+      <c r="F93">
+        <v>-0.03625709295948124</v>
+      </c>
+      <c r="G93">
+        <v>-0.01121137181396861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03109434947636862</v>
+        <v>0.3140647189545189</v>
       </c>
       <c r="C94">
-        <v>-0.1911970457706076</v>
+        <v>0.1603221450086025</v>
       </c>
       <c r="D94">
-        <v>0.2452424800371021</v>
+        <v>-0.01780071273547055</v>
       </c>
       <c r="E94">
-        <v>-0.04021660338845746</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1582866645924906</v>
+      </c>
+      <c r="F94">
+        <v>-0.4857162347805288</v>
+      </c>
+      <c r="G94">
+        <v>0.2136650586398751</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004107162768225774</v>
+        <v>0.0911126423669277</v>
       </c>
       <c r="C95">
-        <v>-0.04120359618827113</v>
+        <v>0.08657510511682179</v>
       </c>
       <c r="D95">
-        <v>0.09587934425944578</v>
+        <v>-0.006632975440426113</v>
       </c>
       <c r="E95">
-        <v>-0.1117194370523309</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07338189654538918</v>
+      </c>
+      <c r="F95">
+        <v>0.1921964640652366</v>
+      </c>
+      <c r="G95">
+        <v>0.08480959198688079</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01542092506477618</v>
+        <v>0.2007150103718575</v>
       </c>
       <c r="C98">
-        <v>-0.1680676004068711</v>
+        <v>0.04302727737550956</v>
       </c>
       <c r="D98">
-        <v>0.1236148930267353</v>
+        <v>-0.01243000290253905</v>
       </c>
       <c r="E98">
-        <v>-0.05094308837461169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06771009729259195</v>
+      </c>
+      <c r="F98">
+        <v>0.2462434728860114</v>
+      </c>
+      <c r="G98">
+        <v>0.03138708745689749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008127731257104471</v>
+        <v>0.01096364450117348</v>
       </c>
       <c r="C101">
-        <v>-0.01828484066396691</v>
+        <v>0.01968621464066332</v>
       </c>
       <c r="D101">
-        <v>0.01110604845302686</v>
+        <v>0.007380644415787611</v>
       </c>
       <c r="E101">
-        <v>0.009147963999087311</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.006840489086520581</v>
+      </c>
+      <c r="F101">
+        <v>-0.01459433316759352</v>
+      </c>
+      <c r="G101">
+        <v>-0.05059005802155105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01818696878191691</v>
+        <v>0.1218283336397203</v>
       </c>
       <c r="C102">
-        <v>-0.08338547674837427</v>
+        <v>0.08042210505960183</v>
       </c>
       <c r="D102">
-        <v>0.1256453696266072</v>
+        <v>0.0009614698679317075</v>
       </c>
       <c r="E102">
-        <v>-0.005595504601637373</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03316528895812483</v>
+      </c>
+      <c r="F102">
+        <v>-0.04401151288309815</v>
+      </c>
+      <c r="G102">
+        <v>-0.002388892506875162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001953316775409027</v>
+        <v>0.00369156760160187</v>
       </c>
       <c r="C103">
-        <v>-0.0119909903716156</v>
+        <v>0.003491861927683812</v>
       </c>
       <c r="D103">
-        <v>0.02294191424343894</v>
+        <v>0.0001210426666976784</v>
       </c>
       <c r="E103">
-        <v>0.00873142877529433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002411216002722902</v>
+      </c>
+      <c r="F103">
+        <v>-0.005776929098154206</v>
+      </c>
+      <c r="G103">
+        <v>-0.01038464362522003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9762335132789897</v>
+        <v>0.02503810905801548</v>
       </c>
       <c r="C104">
-        <v>0.16980974742639</v>
+        <v>-0.03701867108497053</v>
       </c>
       <c r="D104">
-        <v>-0.007299609562951376</v>
+        <v>0.9873076982136035</v>
       </c>
       <c r="E104">
-        <v>0.02633095952487571</v>
+        <v>-0.04400907479096643</v>
+      </c>
+      <c r="F104">
+        <v>-0.04331452181462121</v>
+      </c>
+      <c r="G104">
+        <v>0.01351027721239417</v>
       </c>
     </row>
   </sheetData>
